--- a/GPT_Rankings/composite_selection.xlsx
+++ b/GPT_Rankings/composite_selection.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,78 +458,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>INTU</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81.92</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>57.875</v>
+        <v>60.16666666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>69.90000000000001</v>
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IDXX</t>
+          <t>NVDA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.06999999999999</v>
+        <v>68.55</v>
       </c>
       <c r="C3" t="n">
-        <v>60.10588235294117</v>
+        <v>69.32380952380953</v>
       </c>
       <c r="D3" t="n">
-        <v>69.09999999999999</v>
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HWM</t>
+          <t>IDXX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.34</v>
+        <v>76.87</v>
       </c>
       <c r="C4" t="n">
-        <v>60.62777777777779</v>
+        <v>60.4921568627451</v>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>68.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>NFLX</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.54000000000001</v>
+        <v>80.59</v>
       </c>
       <c r="C5" t="n">
-        <v>60.69035872753189</v>
+        <v>54.3169440546817</v>
       </c>
       <c r="D5" t="n">
-        <v>68.59999999999999</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>APH</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>80.66</v>
+        <v>77.09</v>
       </c>
       <c r="C6" t="n">
-        <v>54.25995276696342</v>
+        <v>57.875</v>
       </c>
       <c r="D6" t="n">
         <v>67.5</v>
@@ -538,273 +538,273 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MNST</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.42</v>
+        <v>78.76000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>59.44708936255899</v>
+        <v>55.79749505777356</v>
       </c>
       <c r="D7" t="n">
-        <v>66.90000000000001</v>
+        <v>67.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PAYC</t>
+          <t>HWM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.19</v>
+        <v>73.84</v>
       </c>
       <c r="C8" t="n">
-        <v>58.70206965029963</v>
+        <v>60.59305555555556</v>
       </c>
       <c r="D8" t="n">
-        <v>64.90000000000001</v>
+        <v>67.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>ULTA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>73.78</v>
+        <v>78.56</v>
       </c>
       <c r="C9" t="n">
-        <v>55.84914685009505</v>
+        <v>53.90141260211903</v>
       </c>
       <c r="D9" t="n">
-        <v>64.8</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>73.16</v>
+        <v>71.03</v>
       </c>
       <c r="C10" t="n">
-        <v>55.86618161563655</v>
+        <v>59.38267523117399</v>
       </c>
       <c r="D10" t="n">
-        <v>64.5</v>
+        <v>65.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>KLAC</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>69.28</v>
+        <v>75.95999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>59.35106992272176</v>
+        <v>53.88846515318296</v>
       </c>
       <c r="D11" t="n">
-        <v>64.3</v>
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>70.09999999999999</v>
+        <v>69.27</v>
       </c>
       <c r="C12" t="n">
-        <v>58.32941404191395</v>
+        <v>60.53185823930151</v>
       </c>
       <c r="D12" t="n">
-        <v>64.2</v>
+        <v>64.90000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>META</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.88</v>
+        <v>65.7</v>
       </c>
       <c r="C13" t="n">
-        <v>57.19132090891988</v>
+        <v>62.4270698920802</v>
       </c>
       <c r="D13" t="n">
-        <v>64</v>
+        <v>64.09999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>73.3</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>54.58763121367149</v>
+        <v>59.27271133635813</v>
       </c>
       <c r="D14" t="n">
-        <v>63.9</v>
+        <v>63.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>RMD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>67.79000000000001</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>56.29345963900711</v>
+        <v>61.24901960784313</v>
       </c>
       <c r="D15" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.64</v>
+        <v>70.94</v>
       </c>
       <c r="C16" t="n">
-        <v>55.17230864363879</v>
+        <v>52.67881280387321</v>
       </c>
       <c r="D16" t="n">
-        <v>61.9</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>CTAS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>62.73</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>61.00588235294117</v>
+        <v>58.47373786712579</v>
       </c>
       <c r="D17" t="n">
-        <v>61.9</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>PLTR</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>66.87</v>
+        <v>69.45</v>
       </c>
       <c r="C18" t="n">
-        <v>56.81677686079262</v>
+        <v>53.7025641025641</v>
       </c>
       <c r="D18" t="n">
-        <v>61.8</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.09</v>
+        <v>65.38</v>
       </c>
       <c r="C19" t="n">
-        <v>56.65756622244161</v>
+        <v>56.66074070361164</v>
       </c>
       <c r="D19" t="n">
-        <v>61.4</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>DASH</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62.26</v>
+        <v>66.19</v>
       </c>
       <c r="C20" t="n">
-        <v>59.49505125078392</v>
+        <v>54.57242998809394</v>
       </c>
       <c r="D20" t="n">
-        <v>60.9</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>66.41</v>
+        <v>58.95</v>
       </c>
       <c r="C21" t="n">
-        <v>55.07322066529154</v>
+        <v>59.32245180363024</v>
       </c>
       <c r="D21" t="n">
-        <v>60.7</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PAYX</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.91</v>
+        <v>62.36</v>
       </c>
       <c r="C22" t="n">
-        <v>58.42386931196927</v>
+        <v>54.45433477188041</v>
       </c>
       <c r="D22" t="n">
-        <v>60.7</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ALLE</t>
+          <t>FAST</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.84</v>
+        <v>61.38</v>
       </c>
       <c r="C23" t="n">
-        <v>52.45609494561415</v>
+        <v>54.60710172024616</v>
       </c>
       <c r="D23" t="n">
-        <v>60.6</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24">
@@ -814,45 +814,29 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>64.84999999999999</v>
+        <v>61.5</v>
       </c>
       <c r="C24" t="n">
-        <v>53.78997351021179</v>
+        <v>53.88608174588665</v>
       </c>
       <c r="D24" t="n">
-        <v>59.3</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DASH</t>
+          <t>VRSK</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63.33</v>
+        <v>59.32</v>
       </c>
       <c r="C25" t="n">
-        <v>54.87040648421055</v>
+        <v>52.64907811522774</v>
       </c>
       <c r="D25" t="n">
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>FAST</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>63.07</v>
-      </c>
-      <c r="C26" t="n">
-        <v>54.48262633979843</v>
-      </c>
-      <c r="D26" t="n">
-        <v>58.8</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
